--- a/static/template.xlsx
+++ b/static/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRIMANDARBHA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sdarbha\Projects\sanscheduler\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB16F73-7642-4762-942B-314F1BF3D7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE2F3D7-6412-443F-9537-59D7D3DB8BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D582576B-7699-4AD6-8BB2-43C0477EDFB4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>servers</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>acknowledgment</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FCB5C7-4F1B-4D66-9B92-3033CFCCF2AC}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,7 +447,7 @@
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,60 +478,63 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="F16" s="1"/>
     </row>
